--- a/src/evaluation/result.xlsx
+++ b/src/evaluation/result.xlsx
@@ -8,13 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yahuis/Desktop/git/AlgebraicEffect/src/evaluation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF075BF0-5507-F24A-B421-E227D1C1AC04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6BFF26E-DA37-9142-A1A1-157ED05D1FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39040" yWindow="600" windowWidth="28040" windowHeight="17440" xr2:uid="{12D2CBC2-7D72-C14E-AB4F-3892B0B57ABD}"/>
+    <workbookView xWindow="39040" yWindow="0" windowWidth="35200" windowHeight="18040" xr2:uid="{12D2CBC2-7D72-C14E-AB4F-3892B0B57ABD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$B$3</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$4</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$B$3</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$B$4</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$C$2:$T$2</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$C$3:$T$3</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$C$4:$T$4</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$C$2:$T$2</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$C$3:$T$3</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$4:$T$4</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$3</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$B$4</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$C$2:$T$2</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$C$3:$T$3</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$C$4:$T$4</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +53,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
+  <si>
+    <t>Shots</t>
+  </si>
+  <si>
+    <t>Forward</t>
+  </si>
+  <si>
+    <t>Normalization</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -87,6 +114,2345 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Forward</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$V$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$V$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5.1999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.122</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.29799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.46500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.70299999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.062000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.888999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22.821999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29.681000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39.597000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40.905999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40.183</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45.585000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44.573</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43.040999999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>51.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>51.67</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>52.841999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>53.234000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C1F2-2047-A428-5915C43D0E97}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Normalization</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$V$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$V$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>91.558000000000007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>223.291</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>320.90600000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>389.346</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>444.59</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>475.90100000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>524.17100000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>558.12599999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>600.86</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>664.96799999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>758.30700000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>838.76199999999994</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>899.85500000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1028.248</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1129.3579999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1203.4110000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1429.135</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1504.509</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1697.8689999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1923.825</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C1F2-2047-A428-5915C43D0E97}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="297104831"/>
+        <c:axId val="440103087"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="297104831"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="200"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="440103087"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="440103087"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2000.1"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="297104831"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="400"/>
+        <c:dispUnits>
+          <c:builtInUnit val="thousands"/>
+          <c:dispUnitsLbl>
+            <c:tx>
+              <c:rich>
+                <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:r>
+                    <a:rPr lang="en-GB"/>
+                    <a:t>seconds</a:t>
+                  </a:r>
+                </a:p>
+              </c:rich>
+            </c:tx>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Forward</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$25:$K$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$26:$K$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.7000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.2999999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.5000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.11700000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-05C1-F54D-BA9B-52BE17A92BD5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Normalization</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$25:$K$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$27:$K$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>55.485999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93.251000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>152.79400000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>192.911</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>291.32400000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>351.41300000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>399.57299999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>434.58699999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>475.10899999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-05C1-F54D-BA9B-52BE17A92BD5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="111958431"/>
+        <c:axId val="111944479"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="111958431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="9"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="111944479"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="111944479"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="111958431"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="100"/>
+        <c:dispUnits>
+          <c:builtInUnit val="thousands"/>
+          <c:dispUnitsLbl>
+            <c:tx>
+              <c:rich>
+                <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:r>
+                    <a:rPr lang="en-GB"/>
+                    <a:t>seconds</a:t>
+                  </a:r>
+                </a:p>
+              </c:rich>
+            </c:tx>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>566966</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>145143</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>335643</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>156028</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF1563CC-57B9-FA49-BDBE-8FFED237968B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>130656</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>17177</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>255827</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>147283</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9862A821-2211-1064-4E01-E5F095254CFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -386,114 +2752,310 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69538B8-FFE4-CC47-A906-D8C69956CE7F}">
-  <dimension ref="A2:J4"/>
+  <dimension ref="B2:V27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="139" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="2" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
         <v>10</v>
       </c>
-      <c r="B2">
+      <c r="D2">
         <v>20</v>
       </c>
-      <c r="C2">
+      <c r="E2">
         <v>30</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>40</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>50</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>60</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>70</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>80</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>90</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>100</v>
       </c>
+      <c r="M2">
+        <v>110</v>
+      </c>
+      <c r="N2">
+        <v>120</v>
+      </c>
+      <c r="O2">
+        <v>130</v>
+      </c>
+      <c r="P2">
+        <v>140</v>
+      </c>
+      <c r="Q2">
+        <v>150</v>
+      </c>
+      <c r="R2">
+        <v>160</v>
+      </c>
+      <c r="S2">
+        <v>170</v>
+      </c>
+      <c r="T2">
+        <v>180</v>
+      </c>
+      <c r="U2">
+        <v>190</v>
+      </c>
+      <c r="V2">
+        <v>200</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="3" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="B3">
+      <c r="D3">
         <v>0.122</v>
       </c>
-      <c r="C3">
+      <c r="E3">
         <v>0.20300000000000001</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>0.29799999999999999</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>0.46500000000000002</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>0.70299999999999996</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>24.062000000000001</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>21.888999999999999</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>22.821999999999999</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>29.681000000000001</v>
       </c>
+      <c r="M3">
+        <v>39.597000000000001</v>
+      </c>
+      <c r="N3">
+        <v>40.905999999999999</v>
+      </c>
+      <c r="O3">
+        <v>40.183</v>
+      </c>
+      <c r="P3">
+        <v>45.585000000000001</v>
+      </c>
+      <c r="Q3">
+        <v>44.573</v>
+      </c>
+      <c r="R3">
+        <v>43.040999999999997</v>
+      </c>
+      <c r="S3">
+        <v>51.2</v>
+      </c>
+      <c r="T3">
+        <v>51.67</v>
+      </c>
+      <c r="U3">
+        <v>52.841999999999999</v>
+      </c>
+      <c r="V3">
+        <v>53.234000000000002</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="4" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
         <v>91.558000000000007</v>
       </c>
-      <c r="B4">
+      <c r="D4">
         <v>223.291</v>
       </c>
-      <c r="C4">
+      <c r="E4">
         <v>320.90600000000001</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>389.346</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>444.59</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>475.90100000000001</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>524.17100000000005</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>558.12599999999998</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>600.86</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>664.96799999999996</v>
+      </c>
+      <c r="M4">
+        <v>758.30700000000002</v>
+      </c>
+      <c r="N4">
+        <v>838.76199999999994</v>
+      </c>
+      <c r="O4">
+        <v>899.85500000000002</v>
+      </c>
+      <c r="P4">
+        <v>1028.248</v>
+      </c>
+      <c r="Q4">
+        <v>1129.3579999999999</v>
+      </c>
+      <c r="R4">
+        <v>1203.4110000000001</v>
+      </c>
+      <c r="S4">
+        <v>1429.135</v>
+      </c>
+      <c r="T4">
+        <v>1504.509</v>
+      </c>
+      <c r="U4">
+        <v>1697.8689999999999</v>
+      </c>
+      <c r="V4">
+        <v>1923.825</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25">
+        <v>5</v>
+      </c>
+      <c r="H25">
+        <v>6</v>
+      </c>
+      <c r="I25">
+        <v>7</v>
+      </c>
+      <c r="J25">
+        <v>8</v>
+      </c>
+      <c r="K25">
+        <v>9</v>
+      </c>
+      <c r="L25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="D26">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="E26">
+        <v>3.9E-2</v>
+      </c>
+      <c r="F26">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="G26">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="H26">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="I26">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="J26">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="K26">
+        <v>0.11700000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>55.485999999999997</v>
+      </c>
+      <c r="D27">
+        <v>93.251000000000005</v>
+      </c>
+      <c r="E27">
+        <v>152.79400000000001</v>
+      </c>
+      <c r="F27">
+        <v>192.911</v>
+      </c>
+      <c r="G27">
+        <v>291.32400000000001</v>
+      </c>
+      <c r="H27">
+        <v>351.41300000000001</v>
+      </c>
+      <c r="I27">
+        <v>399.57299999999998</v>
+      </c>
+      <c r="J27">
+        <v>434.58699999999999</v>
+      </c>
+      <c r="K27">
+        <v>475.10899999999998</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/evaluation/result.xlsx
+++ b/src/evaluation/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yahuis/Desktop/git/AlgebraicEffect/src/evaluation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6BFF26E-DA37-9142-A1A1-157ED05D1FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF39A36-C99A-1542-8D05-35ECA0DD84DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39040" yWindow="0" windowWidth="35200" windowHeight="18040" xr2:uid="{12D2CBC2-7D72-C14E-AB4F-3892B0B57ABD}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="19200" xr2:uid="{12D2CBC2-7D72-C14E-AB4F-3892B0B57ABD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
   <si>
     <t>Shots</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>Normalization</t>
+  </si>
+  <si>
+    <t>Lines of Code</t>
   </si>
 </sst>
 </file>
@@ -1266,6 +1269,348 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Forward</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$25:$K$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$26:$K$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.7000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.2999999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.5000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.11700000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4661-7142-9269-6A7BADDD0DB2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="105730703"/>
+        <c:axId val="105244079"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="105730703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="105244079"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="105244079"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="105730703"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1346,6 +1691,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1863,6 +2248,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2418,16 +3319,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>130656</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>17177</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>212886</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>99407</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>255827</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>147283</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>292374</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28506</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2447,6 +3348,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>450439</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>27411</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>328920</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>10234</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{239DF59F-CF18-1F2A-1032-1FBFB2D02A81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2752,14 +3689,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69538B8-FFE4-CC47-A906-D8C69956CE7F}">
-  <dimension ref="B2:V27"/>
+  <dimension ref="B2:V47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="139" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="139" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
     <col min="3" max="3" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3054,6 +3992,136 @@
         <v>475.10899999999998</v>
       </c>
     </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46">
+        <v>10</v>
+      </c>
+      <c r="D46">
+        <v>20</v>
+      </c>
+      <c r="E46">
+        <v>30</v>
+      </c>
+      <c r="F46">
+        <v>40</v>
+      </c>
+      <c r="G46">
+        <v>50</v>
+      </c>
+      <c r="H46">
+        <v>60</v>
+      </c>
+      <c r="I46">
+        <v>70</v>
+      </c>
+      <c r="J46">
+        <v>80</v>
+      </c>
+      <c r="K46">
+        <v>90</v>
+      </c>
+      <c r="L46">
+        <v>100</v>
+      </c>
+      <c r="M46">
+        <v>110</v>
+      </c>
+      <c r="N46">
+        <v>120</v>
+      </c>
+      <c r="O46">
+        <v>130</v>
+      </c>
+      <c r="P46">
+        <v>140</v>
+      </c>
+      <c r="Q46">
+        <v>150</v>
+      </c>
+      <c r="R46">
+        <v>160</v>
+      </c>
+      <c r="S46">
+        <v>170</v>
+      </c>
+      <c r="T46">
+        <v>180</v>
+      </c>
+      <c r="U46">
+        <v>190</v>
+      </c>
+      <c r="V46">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D47">
+        <v>0.122</v>
+      </c>
+      <c r="E47">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="F47">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="G47">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="H47">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="I47">
+        <v>24.062000000000001</v>
+      </c>
+      <c r="J47">
+        <v>21.888999999999999</v>
+      </c>
+      <c r="K47">
+        <v>22.821999999999999</v>
+      </c>
+      <c r="L47">
+        <v>29.681000000000001</v>
+      </c>
+      <c r="M47">
+        <v>39.597000000000001</v>
+      </c>
+      <c r="N47">
+        <v>40.905999999999999</v>
+      </c>
+      <c r="O47">
+        <v>40.183</v>
+      </c>
+      <c r="P47">
+        <v>45.585000000000001</v>
+      </c>
+      <c r="Q47">
+        <v>44.573</v>
+      </c>
+      <c r="R47">
+        <v>43.040999999999997</v>
+      </c>
+      <c r="S47">
+        <v>51.2</v>
+      </c>
+      <c r="T47">
+        <v>51.67</v>
+      </c>
+      <c r="U47">
+        <v>52.841999999999999</v>
+      </c>
+      <c r="V47">
+        <v>53.234000000000002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/src/evaluation/result.xlsx
+++ b/src/evaluation/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yahuis/Desktop/git/AlgebraicEffect/src/evaluation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF39A36-C99A-1542-8D05-35ECA0DD84DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C74ADF0E-B043-8342-B76E-50BE9808F92F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="19200" xr2:uid="{12D2CBC2-7D72-C14E-AB4F-3892B0B57ABD}"/>
+    <workbookView xWindow="35840" yWindow="0" windowWidth="38400" windowHeight="21560" xr2:uid="{12D2CBC2-7D72-C14E-AB4F-3892B0B57ABD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
   <si>
     <t>Shots</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>Lines of Code</t>
+  </si>
+  <si>
+    <t>Entailment</t>
   </si>
 </sst>
 </file>
@@ -144,7 +147,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$3</c:f>
+              <c:f>Sheet1!$B$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -167,146 +170,53 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$V$2</c:f>
+              <c:f>Sheet1!$C$16:$K$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>70</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>200</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$V$3</c:f>
+              <c:f>Sheet1!$C$17:$K$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>5.1999999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.122</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.20300000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.29799999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.46500000000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.70299999999999996</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24.062000000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>21.888999999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>22.821999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>29.681000000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>39.597000000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>40.905999999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>40.183</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>45.585000000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>44.573</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>43.040999999999997</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>51.2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>51.67</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>52.841999999999999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>53.234000000000002</c:v>
-                </c:pt>
+                <c:ptCount val="9"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C1F2-2047-A428-5915C43D0E97}"/>
+              <c16:uniqueId val="{00000000-05C1-F54D-BA9B-52BE17A92BD5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -315,7 +225,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$4</c:f>
+              <c:f>Sheet1!$B$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -338,648 +248,46 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$V$2</c:f>
+              <c:f>Sheet1!$C$16:$K$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>70</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>200</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$4:$V$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>91.558000000000007</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>223.291</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>320.90600000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>389.346</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>444.59</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>475.90100000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>524.17100000000005</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>558.12599999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>600.86</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>664.96799999999996</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>758.30700000000002</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>838.76199999999994</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>899.85500000000002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1028.248</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1129.3579999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1203.4110000000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1429.135</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1504.509</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1697.8689999999999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1923.825</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C1F2-2047-A428-5915C43D0E97}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="297104831"/>
-        <c:axId val="440103087"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="297104831"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="200"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="440103087"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="440103087"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="2000.1"/>
-          <c:min val="1"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="297104831"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="400"/>
-        <c:dispUnits>
-          <c:builtInUnit val="thousands"/>
-          <c:dispUnitsLbl>
-            <c:tx>
-              <c:rich>
-                <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:r>
-                    <a:rPr lang="en-GB"/>
-                    <a:t>seconds</a:t>
-                  </a:r>
-                </a:p>
-              </c:rich>
-            </c:tx>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-          </c:dispUnitsLbl>
-        </c:dispUnits>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$26</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Forward</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$25:$K$25</c:f>
+              <c:f>Sheet1!$C$18:$K$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$26:$K$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>3.7999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.0999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.9E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.9000000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.7000000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.2999999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.5000000000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.2999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.11700000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-05C1-F54D-BA9B-52BE17A92BD5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$27</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Normalization</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$25:$K$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$27:$K$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>55.485999999999997</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>93.251000000000005</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>152.79400000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>192.911</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>291.32400000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>351.41300000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>399.57299999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>434.58699999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>475.10899999999998</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1269,7 +577,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -1315,7 +623,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13247383224489809"/>
+          <c:y val="0.1972309722953359"/>
+          <c:w val="0.82844914220346144"/>
+          <c:h val="0.71754862362036487"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
@@ -1324,7 +642,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$26</c:f>
+              <c:f>Sheet1!$B$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1347,7 +665,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$25:$K$25</c:f>
+              <c:f>Sheet1!$C$16:$K$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1383,37 +701,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$26:$K$26</c:f>
+              <c:f>Sheet1!$C$17:$K$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>3.7999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.0999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.9E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.9000000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.7000000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.2999999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.5000000000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.2999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.11700000000000001</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1611,6 +902,1065 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Forward</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$46:$V$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$47:$V$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5.1999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.122</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.29799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.46500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.70299999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.062000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.888999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22.821999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29.681000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39.597000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40.905999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40.183</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45.585000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44.573</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43.040999999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>51.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>51.67</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>52.841999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>53.234000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0880-3E4A-AC44-8A6EDFC7A704}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="39366975"/>
+        <c:axId val="112909503"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="39366975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="200"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="112909503"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="112909503"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="39366975"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Forward</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$N$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$N$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>9.875</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.417000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65.259</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>119.584</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>186.44200000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>251.006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>316.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>453.96300000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>585.01099999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>679.95600000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>824.08500000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>982.04399999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4925-D24B-94DA-2F114C9EFAD3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Normalization</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$N$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$N$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.81799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.7430000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.1829999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.7569999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.6280000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.149</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19.385999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.908999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23.010999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22.927</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4925-D24B-94DA-2F114C9EFAD3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Entailment</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$N$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$5:$N$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>17.765000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38.838999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67.231999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>102.581</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>151.25200000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>244.155</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>296.25799999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>368.178</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>519.04600000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>564.23599999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>707.91099999999994</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>766.75800000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4925-D24B-94DA-2F114C9EFAD3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="103659311"/>
+        <c:axId val="127463087"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="103659311"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1200"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="127463087"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="127463087"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="103659311"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:dispUnits>
+          <c:builtInUnit val="thousands"/>
+          <c:dispUnitsLbl>
+            <c:tx>
+              <c:rich>
+                <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:r>
+                    <a:rPr lang="en-GB"/>
+                    <a:t>S</a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="en-US" altLang="zh-CN"/>
+                    <a:t>econds</a:t>
+                  </a:r>
+                </a:p>
+              </c:rich>
+            </c:tx>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1731,6 +2081,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3279,27 +3669,543 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>566966</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>145143</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>167952</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>179727</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>335643</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>156028</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>247439</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>189960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF1563CC-57B9-FA49-BDBE-8FFED237968B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9862A821-2211-1064-4E01-E5F095254CFC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3319,23 +4225,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>212886</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>99407</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>193697</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>138050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>292374</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>28506</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>300597</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>147184</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6">
+        <xdr:cNvPr id="8" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9862A821-2211-1064-4E01-E5F095254CFC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{239DF59F-CF18-1F2A-1032-1FBFB2D02A81}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3355,23 +4261,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>450439</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>27411</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>818813</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>184045</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>328920</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>10234</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>578519</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>194281</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7">
+        <xdr:cNvPr id="10" name="Chart 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{239DF59F-CF18-1F2A-1032-1FBFB2D02A81}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADDAFB57-3729-6AC5-CB68-0F222C6758E6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3384,6 +4290,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>681181</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>184727</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>785090</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>165099</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14499167-1729-2CC1-0E49-DFE7CD6FEBD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3691,8 +4633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69538B8-FFE4-CC47-A906-D8C69956CE7F}">
   <dimension ref="B2:V47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="139" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3701,295 +4643,220 @@
     <col min="3" max="3" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="E2">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="F2">
-        <v>40</v>
+        <v>400</v>
       </c>
       <c r="G2">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="H2">
-        <v>60</v>
+        <v>600</v>
       </c>
       <c r="I2">
-        <v>70</v>
+        <v>700</v>
       </c>
       <c r="J2">
-        <v>80</v>
+        <v>800</v>
       </c>
       <c r="K2">
-        <v>90</v>
+        <v>900</v>
       </c>
       <c r="L2">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="M2">
-        <v>110</v>
+        <v>1100</v>
       </c>
       <c r="N2">
-        <v>120</v>
-      </c>
-      <c r="O2">
-        <v>130</v>
-      </c>
-      <c r="P2">
-        <v>140</v>
-      </c>
-      <c r="Q2">
-        <v>150</v>
-      </c>
-      <c r="R2">
-        <v>160</v>
-      </c>
-      <c r="S2">
-        <v>170</v>
-      </c>
-      <c r="T2">
-        <v>180</v>
-      </c>
-      <c r="U2">
-        <v>190</v>
-      </c>
-      <c r="V2">
-        <v>200</v>
+        <v>1200</v>
       </c>
     </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>5.1999999999999998E-2</v>
+        <v>9.875</v>
       </c>
       <c r="D3">
-        <v>0.122</v>
+        <v>26.417000000000002</v>
       </c>
       <c r="E3">
-        <v>0.20300000000000001</v>
+        <v>65.259</v>
       </c>
       <c r="F3">
-        <v>0.29799999999999999</v>
+        <v>119.584</v>
       </c>
       <c r="G3">
-        <v>0.46500000000000002</v>
+        <v>186.44200000000001</v>
       </c>
       <c r="H3">
-        <v>0.70299999999999996</v>
+        <v>251.006</v>
       </c>
       <c r="I3">
-        <v>24.062000000000001</v>
+        <v>316.10000000000002</v>
       </c>
       <c r="J3">
-        <v>21.888999999999999</v>
+        <v>453.96300000000002</v>
       </c>
       <c r="K3">
-        <v>22.821999999999999</v>
+        <v>585.01099999999997</v>
       </c>
       <c r="L3">
-        <v>29.681000000000001</v>
+        <v>679.95600000000002</v>
       </c>
       <c r="M3">
-        <v>39.597000000000001</v>
+        <v>824.08500000000004</v>
       </c>
       <c r="N3">
-        <v>40.905999999999999</v>
-      </c>
-      <c r="O3">
-        <v>40.183</v>
-      </c>
-      <c r="P3">
-        <v>45.585000000000001</v>
-      </c>
-      <c r="Q3">
-        <v>44.573</v>
-      </c>
-      <c r="R3">
-        <v>43.040999999999997</v>
-      </c>
-      <c r="S3">
-        <v>51.2</v>
-      </c>
-      <c r="T3">
-        <v>51.67</v>
-      </c>
-      <c r="U3">
-        <v>52.841999999999999</v>
-      </c>
-      <c r="V3">
-        <v>53.234000000000002</v>
+        <v>982.04399999999998</v>
       </c>
     </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="C4">
-        <v>91.558000000000007</v>
+        <v>0.26</v>
       </c>
       <c r="D4">
-        <v>223.291</v>
+        <v>0.81799999999999995</v>
       </c>
       <c r="E4">
-        <v>320.90600000000001</v>
+        <v>5.7430000000000003</v>
       </c>
       <c r="F4">
-        <v>389.346</v>
+        <v>9.1829999999999998</v>
       </c>
       <c r="G4">
-        <v>444.59</v>
+        <v>4.7569999999999997</v>
       </c>
       <c r="H4">
-        <v>475.90100000000001</v>
+        <v>7.6280000000000001</v>
       </c>
       <c r="I4">
-        <v>524.17100000000005</v>
+        <v>7.149</v>
       </c>
       <c r="J4">
-        <v>558.12599999999998</v>
+        <v>12.56</v>
       </c>
       <c r="K4">
-        <v>600.86</v>
+        <v>19.385999999999999</v>
       </c>
       <c r="L4">
-        <v>664.96799999999996</v>
+        <v>17.908999999999999</v>
       </c>
       <c r="M4">
-        <v>758.30700000000002</v>
+        <v>23.010999999999999</v>
       </c>
       <c r="N4">
-        <v>838.76199999999994</v>
-      </c>
-      <c r="O4">
-        <v>899.85500000000002</v>
-      </c>
-      <c r="P4">
-        <v>1028.248</v>
-      </c>
-      <c r="Q4">
-        <v>1129.3579999999999</v>
-      </c>
-      <c r="R4">
-        <v>1203.4110000000001</v>
-      </c>
-      <c r="S4">
-        <v>1429.135</v>
-      </c>
-      <c r="T4">
-        <v>1504.509</v>
-      </c>
-      <c r="U4">
-        <v>1697.8689999999999</v>
-      </c>
-      <c r="V4">
-        <v>1923.825</v>
+        <v>22.927</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C25">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>17.765000000000001</v>
+      </c>
+      <c r="D5">
+        <v>38.838999999999999</v>
+      </c>
+      <c r="E5">
+        <v>67.231999999999999</v>
+      </c>
+      <c r="F5">
+        <v>102.581</v>
+      </c>
+      <c r="G5">
+        <v>151.25200000000001</v>
+      </c>
+      <c r="H5">
+        <v>244.155</v>
+      </c>
+      <c r="I5">
+        <v>296.25799999999998</v>
+      </c>
+      <c r="J5">
+        <v>368.178</v>
+      </c>
+      <c r="K5">
+        <v>519.04600000000005</v>
+      </c>
+      <c r="L5">
+        <v>564.23599999999999</v>
+      </c>
+      <c r="M5">
+        <v>707.91099999999994</v>
+      </c>
+      <c r="N5">
+        <v>766.75800000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C16">
         <v>1</v>
       </c>
-      <c r="D25">
+      <c r="D16">
         <v>2</v>
       </c>
-      <c r="E25">
+      <c r="E16">
         <v>3</v>
       </c>
-      <c r="F25">
+      <c r="F16">
         <v>4</v>
       </c>
-      <c r="G25">
+      <c r="G16">
         <v>5</v>
       </c>
-      <c r="H25">
+      <c r="H16">
         <v>6</v>
       </c>
-      <c r="I25">
+      <c r="I16">
         <v>7</v>
       </c>
-      <c r="J25">
+      <c r="J16">
         <v>8</v>
       </c>
-      <c r="K25">
+      <c r="K16">
         <v>9</v>
       </c>
-      <c r="L25">
+      <c r="L16">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
         <v>1</v>
       </c>
-      <c r="C26">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="D26">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="E26">
-        <v>3.9E-2</v>
-      </c>
-      <c r="F26">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="G26">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="H26">
-        <v>7.2999999999999995E-2</v>
-      </c>
-      <c r="I26">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="J26">
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="K26">
-        <v>0.11700000000000001</v>
-      </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
         <v>2</v>
       </c>
-      <c r="C27">
-        <v>55.485999999999997</v>
-      </c>
-      <c r="D27">
-        <v>93.251000000000005</v>
-      </c>
-      <c r="E27">
-        <v>152.79400000000001</v>
-      </c>
-      <c r="F27">
-        <v>192.911</v>
-      </c>
-      <c r="G27">
-        <v>291.32400000000001</v>
-      </c>
-      <c r="H27">
-        <v>351.41300000000001</v>
-      </c>
-      <c r="I27">
-        <v>399.57299999999998</v>
-      </c>
-      <c r="J27">
-        <v>434.58699999999999</v>
-      </c>
-      <c r="K27">
-        <v>475.10899999999998</v>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V45">
+        <v>25.908999999999999</v>
       </c>
     </row>
     <row r="46" spans="2:22" x14ac:dyDescent="0.2">
@@ -3997,10 +4864,10 @@
         <v>3</v>
       </c>
       <c r="C46">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D46">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E46">
         <v>30</v>

--- a/src/evaluation/result.xlsx
+++ b/src/evaluation/result.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yahuis/Desktop/git/AlgebraicEffect/src/evaluation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56FCFC3-02C3-B549-8F47-8F355B1ACDA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B17769D-107F-7241-BD48-94E983421756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="19200" xr2:uid="{12D2CBC2-7D72-C14E-AB4F-3892B0B57ABD}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" activeTab="3" xr2:uid="{12D2CBC2-7D72-C14E-AB4F-3892B0B57ABD}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="46">
   <si>
     <t>Shots</t>
   </si>
@@ -55,13 +59,141 @@
   <si>
     <t>operations</t>
   </si>
+  <si>
+    <t>SUMMARY OUTPUT</t>
+  </si>
+  <si>
+    <t>Regression Statistics</t>
+  </si>
+  <si>
+    <t>Multiple R</t>
+  </si>
+  <si>
+    <t>R Square</t>
+  </si>
+  <si>
+    <t>Adjusted R Square</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Residual</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Significance F</t>
+  </si>
+  <si>
+    <t>Coefficients</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>Lower 95%</t>
+  </si>
+  <si>
+    <t>Upper 95%</t>
+  </si>
+  <si>
+    <t>Lower 95.0%</t>
+  </si>
+  <si>
+    <t>Upper 95.0%</t>
+  </si>
+  <si>
+    <t>X Variable 1</t>
+  </si>
+  <si>
+    <t>X Variable 2</t>
+  </si>
+  <si>
+    <t>X Variable 3</t>
+  </si>
+  <si>
+    <t>X Variable 4</t>
+  </si>
+  <si>
+    <t>X Variable 5</t>
+  </si>
+  <si>
+    <t>X Variable 6</t>
+  </si>
+  <si>
+    <t>X Variable 7</t>
+  </si>
+  <si>
+    <t>X Variable 8</t>
+  </si>
+  <si>
+    <t>X Variable 9</t>
+  </si>
+  <si>
+    <t>X Variable 10</t>
+  </si>
+  <si>
+    <t>X Variable 11</t>
+  </si>
+  <si>
+    <t>X Variable 12</t>
+  </si>
+  <si>
+    <t>RESIDUAL OUTPUT</t>
+  </si>
+  <si>
+    <t>Observation</t>
+  </si>
+  <si>
+    <t>Predicted 100</t>
+  </si>
+  <si>
+    <t>Residuals</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -77,7 +209,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -85,12 +217,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2595,16 +2755,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>496455</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>196271</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>658091</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>69271</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>611909</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>165097</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>773545</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>38097</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2928,11 +3088,1658 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A60DAA5-64B6-5A41-A518-427CD0F2C981}">
+  <dimension ref="A1:I29"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:I29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="10.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.92833612893612738</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.86180796828811412</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1">
+        <v>140.57546206504065</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1232385.3946520032</v>
+      </c>
+      <c r="D12" s="1">
+        <v>102698.78288766694</v>
+      </c>
+      <c r="E12" s="1">
+        <v>62.363072429883815</v>
+      </c>
+      <c r="F12" s="1" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1">
+        <v>197614.60534799684</v>
+      </c>
+      <c r="D13" s="1">
+        <v>19761.460534799684</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="2">
+        <v>22</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1430000</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18">
+        <v>-313.22164866303973</v>
+      </c>
+      <c r="I18">
+        <v>313.22164866303973</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19">
+        <v>-1.9202278170941021</v>
+      </c>
+      <c r="I19">
+        <v>1.9202278170941021</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21">
+        <v>-2.6165319405777599E-293</v>
+      </c>
+      <c r="I21">
+        <v>2.6165319405777599E-293</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>39</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28">
+        <v>350.81507910817948</v>
+      </c>
+      <c r="C28">
+        <v>55.516833745276216</v>
+      </c>
+      <c r="D28">
+        <v>6.3190757729051761</v>
+      </c>
+      <c r="E28">
+        <v>8.6914747684917697E-5</v>
+      </c>
+      <c r="F28">
+        <v>227.11586490106686</v>
+      </c>
+      <c r="G28">
+        <v>474.51429331529209</v>
+      </c>
+      <c r="H28">
+        <v>227.11586490106686</v>
+      </c>
+      <c r="I28">
+        <v>474.51429331529209</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29">
+        <v>0.10293681311651078</v>
+      </c>
+      <c r="C29">
+        <v>1.3034877883488252E-2</v>
+      </c>
+      <c r="D29">
+        <v>7.8970293420933801</v>
+      </c>
+      <c r="E29">
+        <v>1.3187438231235E-5</v>
+      </c>
+      <c r="F29">
+        <v>7.3893295273413984E-2</v>
+      </c>
+      <c r="G29">
+        <v>0.13198033095960757</v>
+      </c>
+      <c r="H29">
+        <v>7.3893295273413984E-2</v>
+      </c>
+      <c r="I29">
+        <v>0.13198033095960757</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{878B2A91-24F0-E64F-8DCA-3088B44BCC28}">
+  <dimension ref="A1:I35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.94300423887377105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.88925699453390017</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1">
+        <v>-1.2222222222222223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1">
+        <v>116.34112008930647</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1">
+        <v>978182.69398729014</v>
+      </c>
+      <c r="D12" s="1">
+        <v>88925.699453390014</v>
+      </c>
+      <c r="E12" s="1">
+        <v>72.269240997392259</v>
+      </c>
+      <c r="F12" s="1" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1">
+        <v>121817.30601270989</v>
+      </c>
+      <c r="D13" s="1">
+        <v>13535.256223634431</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="2">
+        <v>20</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1100000</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>22.19</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1">
+        <v>-3.4509396585848526E-303</v>
+      </c>
+      <c r="I18" s="1">
+        <v>8.9192597066747609E-303</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>71.605999999999995</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>194.40899999999999</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1">
+        <v>-3.4509396587380148E-303</v>
+      </c>
+      <c r="I20" s="1">
+        <v>8.919259706827923E-303</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>411.399</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1">
+        <v>0.99999600649999998</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.99999600649999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>765.6</v>
+      </c>
+      <c r="B22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.34343639613791366</v>
+      </c>
+      <c r="F22" s="1">
+        <v>-3.4509396586399359E-303</v>
+      </c>
+      <c r="G22" s="1">
+        <v>8.9192597068171278E-303</v>
+      </c>
+      <c r="H22" s="1">
+        <v>-3.4509396586399359E-303</v>
+      </c>
+      <c r="I22" s="1">
+        <v>8.9192597068171278E-303</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>1285.04</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>1984.8030000000001</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1">
+        <v>2.7341577524355769E-303</v>
+      </c>
+      <c r="I24" s="1">
+        <v>2.734162295654332E-303</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>2711.0259999999998</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1">
+        <v>-2.2621571627982053</v>
+      </c>
+      <c r="I25" s="1">
+        <v>2.2621571627982053</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>4152.4229999999998</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1">
+        <v>-3.4509396586158718E-303</v>
+      </c>
+      <c r="I26" s="1">
+        <v>8.919259706841192E-303</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>5948.107</v>
+      </c>
+      <c r="B27" s="1">
+        <v>397.35722119156537</v>
+      </c>
+      <c r="C27" s="1">
+        <v>49.978582226063985</v>
+      </c>
+      <c r="D27" s="1">
+        <v>7.9505500855192794</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2.3258137739270801E-5</v>
+      </c>
+      <c r="F27" s="1">
+        <v>284.29781342237567</v>
+      </c>
+      <c r="G27" s="1">
+        <v>510.41662896075508</v>
+      </c>
+      <c r="H27" s="1">
+        <v>284.29781342237567</v>
+      </c>
+      <c r="I27" s="1">
+        <v>510.41662896075508</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>7913.8280000000004</v>
+      </c>
+      <c r="B28" s="2">
+        <v>9.5510070831245367E-2</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1.1234983018979719E-2</v>
+      </c>
+      <c r="D28" s="2">
+        <v>8.5011317480316855</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1.3579434971815898E-5</v>
+      </c>
+      <c r="F28" s="2">
+        <v>7.009477352094419E-2</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0.12092536814154654</v>
+      </c>
+      <c r="H28" s="2">
+        <v>7.009477352094419E-2</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0.12092536814154654</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>9417.4609999999993</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>1</v>
+      </c>
+      <c r="B35" s="2">
+        <v>2897274823.7262282</v>
+      </c>
+      <c r="C35" s="2">
+        <v>-2897274623.7262282</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FDA2084-09D6-1048-B04C-2A2FEB3B5CFB}">
+  <dimension ref="A1:I35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.93603291687468504</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.87615762147293086</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1">
+        <v>-1.2222222222222223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1">
+        <v>123.02963345822013</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1">
+        <v>963773.38362022396</v>
+      </c>
+      <c r="D12" s="1">
+        <v>87615.762147293091</v>
+      </c>
+      <c r="E12" s="1">
+        <v>63.673022813695454</v>
+      </c>
+      <c r="F12" s="1" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1">
+        <v>136226.61637977598</v>
+      </c>
+      <c r="D13" s="1">
+        <v>15136.290708863999</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="2">
+        <v>20</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1100000</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>5.7430000000000003</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>9.1829999999999998</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>4.7569999999999997</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>7.6280000000000001</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>7.149</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>12.56</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>19.385999999999999</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1">
+        <v>-6.1850986784535072E-303</v>
+      </c>
+      <c r="I26" s="1">
+        <v>6.1851006868103259E-303</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>17.908999999999999</v>
+      </c>
+      <c r="B27" s="1">
+        <v>221.47486049512037</v>
+      </c>
+      <c r="C27" s="1">
+        <v>70.514615455695576</v>
+      </c>
+      <c r="D27" s="1">
+        <v>3.1408362516601018</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1.1911976214770085E-2</v>
+      </c>
+      <c r="F27" s="1">
+        <v>61.959718060057583</v>
+      </c>
+      <c r="G27" s="1">
+        <v>380.99000293018315</v>
+      </c>
+      <c r="H27" s="1">
+        <v>61.959718060057583</v>
+      </c>
+      <c r="I27" s="1">
+        <v>380.99000293018315</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>23.010999999999999</v>
+      </c>
+      <c r="B28" s="2">
+        <v>40.159734300903146</v>
+      </c>
+      <c r="C28" s="2">
+        <v>5.0328396862596732</v>
+      </c>
+      <c r="D28" s="2">
+        <v>7.9795377568939072</v>
+      </c>
+      <c r="E28" s="2">
+        <v>2.2592256578561894E-5</v>
+      </c>
+      <c r="F28" s="2">
+        <v>28.774659955415753</v>
+      </c>
+      <c r="G28" s="2">
+        <v>51.544808646390536</v>
+      </c>
+      <c r="H28" s="2">
+        <v>28.774659955415753</v>
+      </c>
+      <c r="I28" s="2">
+        <v>51.544808646390536</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>22.927</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>1</v>
+      </c>
+      <c r="B35" s="2">
+        <v>6017.1002431700208</v>
+      </c>
+      <c r="C35" s="2">
+        <v>-5817.1002431700208</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF35FB5-069A-7F4F-8230-E0A61F4D5EEF}">
+  <dimension ref="A1:I35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.98530433983543997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.97082464209855179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1">
+        <v>-1.2222222222222223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1">
+        <v>59.714965267039084</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1067907.1063084069</v>
+      </c>
+      <c r="D12" s="1">
+        <v>97082.46420985517</v>
+      </c>
+      <c r="E12" s="1">
+        <v>299.47950624637315</v>
+      </c>
+      <c r="F12" s="1" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1">
+        <v>32092.893691593155</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3565.8770768436839</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="2">
+        <v>20</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1100000</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>17.765000000000001</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1">
+        <v>7.6959762675845122E-289</v>
+      </c>
+      <c r="I18" s="1">
+        <v>7.6959762675850062E-289</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>38.838999999999999</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>67.231999999999999</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1">
+        <v>1.7918591079267156E-298</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1.7918591079267156E-298</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>102.581</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>151.25200000000001</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1">
+        <v>-4.0534669157216225E-298</v>
+      </c>
+      <c r="I22" s="1">
+        <v>4.0534669157216225E-298</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>244.155</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>296.25799999999998</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1">
+        <v>-4.0534395741214646E-298</v>
+      </c>
+      <c r="I24" s="1">
+        <v>4.0534942573217804E-298</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>368.178</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1">
+        <v>1.8692127409016451E-306</v>
+      </c>
+      <c r="I25" s="1">
+        <v>1.869212839277255E-306</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>519.04600000000005</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1">
+        <v>1.0681053941526732E-306</v>
+      </c>
+      <c r="I26" s="1">
+        <v>1.0681053941526792E-306</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>564.23599999999999</v>
+      </c>
+      <c r="B27" s="1">
+        <v>260.21572581006063</v>
+      </c>
+      <c r="C27" s="1">
+        <v>31.144691721022273</v>
+      </c>
+      <c r="D27" s="1">
+        <v>8.3550586450152053</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1.5620276976623274E-5</v>
+      </c>
+      <c r="F27" s="1">
+        <v>189.76153835020813</v>
+      </c>
+      <c r="G27" s="1">
+        <v>330.66991326991314</v>
+      </c>
+      <c r="H27" s="1">
+        <v>189.76153835020813</v>
+      </c>
+      <c r="I27" s="1">
+        <v>330.66991326991314</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>707.91099999999994</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1.2642611488805364</v>
+      </c>
+      <c r="C28" s="2">
+        <v>7.3055553908096843E-2</v>
+      </c>
+      <c r="D28" s="2">
+        <v>17.305476192418777</v>
+      </c>
+      <c r="E28" s="2">
+        <v>3.2404256130615782E-8</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1.0989980043251446</v>
+      </c>
+      <c r="G28" s="2">
+        <v>1.4295242934359282</v>
+      </c>
+      <c r="H28" s="2">
+        <v>1.0989980043251446</v>
+      </c>
+      <c r="I28" s="2">
+        <v>1.4295242934359282</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>766.75800000000004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>1</v>
+      </c>
+      <c r="B35" s="2">
+        <v>185178.95702391915</v>
+      </c>
+      <c r="C35" s="2">
+        <v>-184978.95702391915</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69538B8-FFE4-CC47-A906-D8C69956CE7F}">
   <dimension ref="B2:V47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
